--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BDE/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BDE/10/seed4/result_data_RandomForest.xlsx
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.298700000000002</v>
+        <v>-7.430100000000002</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -584,7 +584,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>6.461299999999997</v>
+        <v>6.688699999999999</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.2686</v>
+        <v>-7.314099999999999</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.1063</v>
+        <v>16.2436</v>
       </c>
     </row>
     <row r="16">
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>7.051700000000002</v>
+        <v>7.739199999999999</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.265899999999993</v>
+        <v>9.345999999999997</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.505799999999999</v>
+        <v>-8.349200000000005</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -890,13 +890,13 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.912500000000003</v>
+        <v>5.578600000000006</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.847100000000001</v>
+        <v>-8.678099999999999</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.323700000000001</v>
+        <v>-7.251500000000001</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.998599999999999</v>
+        <v>-7.846500000000002</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1083,10 +1083,10 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.194900000000001</v>
+        <v>-7.214699999999998</v>
       </c>
       <c r="E38" t="n">
-        <v>17.13949999999999</v>
+        <v>17.04129999999999</v>
       </c>
     </row>
     <row r="39">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.05059999999999</v>
+        <v>16.11789999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1304,10 +1304,10 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.719900000000003</v>
+        <v>-8.661100000000003</v>
       </c>
       <c r="E51" t="n">
-        <v>16.3298</v>
+        <v>16.4661</v>
       </c>
     </row>
     <row r="52">
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.303099999999997</v>
+        <v>-8.624499999999998</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.70959999999999</v>
+        <v>16.5947</v>
       </c>
     </row>
     <row r="58">
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>18.13300000000002</v>
+        <v>18.54510000000002</v>
       </c>
     </row>
     <row r="64">
@@ -1604,13 +1604,13 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.444999999999996</v>
+        <v>5.377399999999998</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.186499999999994</v>
+        <v>-7.263599999999994</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1627,10 +1627,10 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.538099999999998</v>
+        <v>-8.283999999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>17.105</v>
+        <v>16.64259999999999</v>
       </c>
     </row>
     <row r="71">
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.3569</v>
+        <v>5.3881</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>6.226299999999998</v>
+        <v>6.622599999999995</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1848,7 +1848,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.7315</v>
+        <v>-8.949999999999996</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -2123,7 +2123,7 @@
         <v>-7.98</v>
       </c>
       <c r="E99" t="n">
-        <v>16.43209999999999</v>
+        <v>16.58629999999999</v>
       </c>
     </row>
     <row r="100">
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-8.033299999999999</v>
+        <v>-7.810200000000002</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
